--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R04 吹膜机组开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R04 吹膜机组开机前确认表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20151124\SOP-MFG-3 生产岗位\301. 吹膜岗位记录表20150701\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\Extrusion\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>确认结果</t>
   </si>
   <si>
-    <t>是否按《吹膜机组开机工具表》准备工具。</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -39,62 +36,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>冷却风</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>压缩空气</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认冷却风检测合格，符合生产工艺要求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷芯管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认卷芯管清洁合格，规格满足生产要求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认原料检测合格，数量满足生产要求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认压缩空气检测合格，气压符合生产工艺要求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动部件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查旋转牵引、一牵引、人字夹板、稳泡器、纠偏、二牵引、收卷、冷却风机运转情况。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>过滤网</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>注：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -103,87 +44,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>电子称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动叉车</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已清洁干净且运行正常，电量充足。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认车间环境、设备卫生符合生产工艺要求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大小合适的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>目不锈钢过滤网，数量满足生产需要。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别检查 A、B、C 三层减速器油位，是否在油镜中位以上。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能正常打开，相关软件能正常运行。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸尘器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已清洁干净且运行正常。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测厚仪、电脑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供料系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备卫生符合要求，供料系统各部件运行正常。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>确认项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -197,6 +57,10 @@
   </si>
   <si>
     <t>吹膜机组开机前确认表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +98,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -251,14 +108,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -373,31 +222,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,16 +261,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -744,17 +593,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -762,13 +611,13 @@
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>0</v>
@@ -778,211 +627,155 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>

--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R04 吹膜机组开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R04 吹膜机组开机前确认表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\Extrusion\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,49 +19,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>确认结果</t>
   </si>
   <si>
+    <t>是否按《吹膜机组开机工具表》准备工具。</t>
+  </si>
+  <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是 □  否 □</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认冷却风检测合格，符合生产工艺要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷芯管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认卷芯管清洁合格，规格满足生产要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认原料检测合格，数量满足生产要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认压缩空气检测合格，气压符合生产工艺要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查旋转牵引、一牵引、人字夹板、稳泡器、纠偏、二牵引、收卷、冷却风机运转情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正常或符合是打“√”，不正常或不符合打“×”。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动叉车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已清洁干净且运行正常，电量充足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认车间环境、设备卫生符合生产工艺要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别检查 A、B、C 三层减速器油位，是否在油镜中位以上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能正常打开，相关软件能正常运行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸尘器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已清洁干净且运行正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测厚仪、电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供料系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备卫生符合要求，供料系统各部件运行正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确认项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">确认人/日期：                                    年   月   日                     复核人/日期：                                    年   月   日           </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SOP-MFG-301-R04A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吹膜机组开机前确认表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小合适的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目不锈钢过滤网，数量满足生产需要。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">确认人/日期：                年   月   日             复核人/日期：                      年   月   日           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -77,28 +217,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -118,14 +237,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -215,62 +356,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,218 +715,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="92.625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
+      <c r="A1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.6" right="0.28000000000000003" top="0.71" bottom="0.61" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.27559055118110237" top="1.06" bottom="0.42" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R04 吹膜机组开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R04 吹膜机组开机前确认表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/C/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BC34CBD-7397-0647-8053-0AF09E4AA08C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="15480" windowHeight="8385"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -207,12 +208,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -231,7 +232,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -356,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,9 +382,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -413,7 +411,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,6 +502,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,22 +746,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -739,23 +771,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="36" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -769,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="22" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -783,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="22" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -797,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="22" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -811,21 +843,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="22" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="22" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -839,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -853,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="22" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -867,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="22" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -881,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="22" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -895,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="22" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -909,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="22" customHeight="1">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -923,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="22" customHeight="1">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -937,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="22" customHeight="1">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -951,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="22" customHeight="1">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -965,23 +997,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" ht="22" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
